--- a/medicine/Sexualité et sexologie/Électrostimulation_érotique/Électrostimulation_érotique.xlsx
+++ b/medicine/Sexualité et sexologie/Électrostimulation_érotique/Électrostimulation_érotique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lectrostimulation_%C3%A9rotique</t>
+          <t>Électrostimulation_érotique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'électrostimulation érotique (aussi appelée E-stim, electrosexe ou electrostim), est l'utilisation de courants électriques de basse fréquence pour stimuler les nerfs et les muscles (en particulier les zones sexuelles) avec un appareil de type TENS ou EMS.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lectrostimulation_%C3%A9rotique</t>
+          <t>Électrostimulation_érotique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’électro-stimulation érotique a débuté pendant les années 1950 avec l'introduction d'un dispositif appelé le Relaxacisor, qui a été à l'origine conçu pour stimuler les muscles d'une personne en utilisant les courants électriques tout en détendant, en tant que des moyens d'« exercice passif ».
 De tels appareils sont toujours dans l'utilisation médicale aujourd'hui et sont connus comme unités de EMS (stimulation électronique de muscle).
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lectrostimulation_%C3%A9rotique</t>
+          <t>Électrostimulation_érotique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les appareils de ce type ont trois effets :
 électro-massage ou « électro-masturbation », sur les nerfs des extrémités, gland du pénis ou clitoris ;
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89lectrostimulation_%C3%A9rotique</t>
+          <t>Électrostimulation_érotique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,49 +612,122 @@
           <t>Appareils</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un appareil se compose de trois parties :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un appareil se compose de trois parties :
 un générateur d'impulsion, de fréquence et de forme variables, anciennement avec des temporisateurs, maintenant, comme avec les appareils d’électro-stimulation musculaire, des microcontrôleurs (PIC, Atmel, Arduino), généralement de fréquence comprise entre 1 et 500 Hz (voire sur tout le spectre audio pour certains appareils haut de gamme), largeur d'impulsion généralement entre 20 micro-secondes et 300 micro-secondes ;
 un amplificateur et un transformateur ou un élévateur de tension (convertisseur boost) qui élève la tension de 10 V à 80 V (transformateur d'impédance) ;
-des électrodes de forme diverses.
-Appareils personnels ou dérivés
-Certains, aux États-Unis, utilisent d'autres appareils pour générer les signaux électriques. Soit des chaînes Hifi avec des CD et des musiques spécifiques, soit des micro-ordinateurs dotés de programmes qui génèrent toutes sortes de sons. Ces sons sont captés sur les sorties comme la carte son et envoyés à un petit amplificateur et à un transformateur. Les transformateurs de ligne 100 V audio (ou les transformateurs audio d'impédance) sont les plus aptes à laisser passer le spectre des fréquences audibles (20 Hz - 20 kHz), et ainsi évitent le risque de s'échauffer comme les simples transformateurs d'alimentation prévus pour le 50 ou 60 Hz. Il est possible de trouver sur le Web de nombreux schémas permettant de réaliser soi-même son propre appareil d'électrostimulation.
+des électrodes de forme diverses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Électrostimulation_érotique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lectrostimulation_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Appareils</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Appareils personnels ou dérivés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains, aux États-Unis, utilisent d'autres appareils pour générer les signaux électriques. Soit des chaînes Hifi avec des CD et des musiques spécifiques, soit des micro-ordinateurs dotés de programmes qui génèrent toutes sortes de sons. Ces sons sont captés sur les sorties comme la carte son et envoyés à un petit amplificateur et à un transformateur. Les transformateurs de ligne 100 V audio (ou les transformateurs audio d'impédance) sont les plus aptes à laisser passer le spectre des fréquences audibles (20 Hz - 20 kHz), et ainsi évitent le risque de s'échauffer comme les simples transformateurs d'alimentation prévus pour le 50 ou 60 Hz. Il est possible de trouver sur le Web de nombreux schémas permettant de réaliser soi-même son propre appareil d'électrostimulation.
 Il est à noter que ces pratiques sont dangereuses et fortement déconseillées, une erreur de manipulation pouvant entraîner des dommages irréversibles sur les tissus des organes, voire la mort par électrocution.
 Des fabricants réalisent maintenant des appareils sécurisés avec des isolations optiques pouvant être branchés à la carte son d'un micro-ordinateur. Ces appareils servent à générer aussi d'autres courants d'électrothérapie comme la stimulation musculaire ou le blocage de la douleur avec le TENS.
-Appareil d'électro-stimulation érotique
-Les appareils d'électro-stimulation érotique sont spécifiquement conçus et fabriqués pour cet usage. Les premières unités analogiques sont devenues populaires pendant le milieu des années 1980, et depuis les années 1990, des dispositifs numériques sont devenus disponibles. Les deux types tiennent compte habituellement des ajustements des niveaux de fréquence et de puissance. L'ensemble se compose habituellement d'une boîte de réglage et d'électrodes câblées, portatives et fonctionnant avec des piles. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Électrostimulation_érotique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lectrostimulation_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Appareils</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Appareil d'électro-stimulation érotique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les appareils d'électro-stimulation érotique sont spécifiquement conçus et fabriqués pour cet usage. Les premières unités analogiques sont devenues populaires pendant le milieu des années 1980, et depuis les années 1990, des dispositifs numériques sont devenus disponibles. Les deux types tiennent compte habituellement des ajustements des niveaux de fréquence et de puissance. L'ensemble se compose habituellement d'une boîte de réglage et d'électrodes câblées, portatives et fonctionnant avec des piles. 
 Il y a trois fabricants principaux d'appareils aux États-Unis : Paradise Electro Stimulations, Folsom Electric et Erostek. Mentionnons aussi Mystim en Allemagne, 3rdH en France et plusieurs autres dans le monde entier. 
 Il y a les unités également dérivées de TENS et d'EMS lancées sur le marché en tant qu'appareil électro-stimulateur érotique, ou encore des appareils pour lutter contre les troubles de l'érection comme le PhalliMax.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89lectrostimulation_%C3%A9rotique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Électrostimulation_érotique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89lectrostimulation_%C3%A9rotique</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Applications pratiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le boîtier d'électrostimulation comprend 1 ou 2 sorties. Pour chaque sortie, il existe un pôle positif et un pôle dit "commun". Chaque pôle doit être branché à un conducteur fixé à une partie de l'anatomie du sujet. Par exemple, le pôle + est branché sur un anneau conducteur au niveau du gland ; le pôle "commun" est branché à un autre anneau conducteur autour des bourses, ou à n'importe quelle autre partie du corps, pourvu que ce soit "sous la ceinture" : électrode anale, sonde introduite dans l'urètre descendant dans la prostate, etc.
 Le stimulateur produit une différence de potentiel entre ces deux électrodes. Le signal électrique est ressenti de manières très diverses, fonction d'une infinité de possibilités : qualité du signal (fréquence, amplitude, intensité...), position des électrodes, position relative des électrodes, type d'électrode (métal, matière plastique...). Lorsque le stimulateur est muni de 2 sorties (ET312 par exemple), il est possible d'établir une connexion en triphasé : le stimulateur crée une 3e différence de potentiel entre les 2 électrodes positives, à condition de posséder 2 électrodes en commun. Les TENS classiques ne permettent pas une véritable stimulation en triphasique, seuls les appareils dédiés à la stimulation érotique le pouvant. Cette variante d'électrostimulation offre des sensations uniques de masturbation, l'influx migrant de haut en bas comme le ferait une masturbation manuelle.
@@ -646,34 +735,36 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89lectrostimulation_%C3%A9rotique</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Électrostimulation_érotique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89lectrostimulation_%C3%A9rotique</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Autres méthodes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'autres méthodes médicales ont donné lieu à des dépôts de brevets comme celui de Stuart Meloy[1], qui a découvert par hasard que des électrodes implantées dans le bas de la moelle épinière procuraient des sensations d'orgasme chez les femmes.
-D'autres appareils utilisent des électrodes implantées avec un acte de chirurgie, mais on peut les remplacer par des courants interférentiels avec des électrodes de surface[2],[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'autres méthodes médicales ont donné lieu à des dépôts de brevets comme celui de Stuart Meloy, qui a découvert par hasard que des électrodes implantées dans le bas de la moelle épinière procuraient des sensations d'orgasme chez les femmes.
+D'autres appareils utilisent des électrodes implantées avec un acte de chirurgie, mais on peut les remplacer par des courants interférentiels avec des électrodes de surface,.
 </t>
         </is>
       </c>
